--- a/DOM_Banner/output/dept0701/Keith A Joiner_2023.xlsx
+++ b/DOM_Banner/output/dept0701/Keith A Joiner_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,348 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Gautam Gowrisankaran, Keith A. Joiner, Pierre-Thomas Léger</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3122448629</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Physician Practice Style and Healthcare Costs: Evidence from Emergency Departments</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5014426024", "https://openalex.org/A5082148123", "https://openalex.org/A5040933786"), au_display_name = c("Gautam Gowrisankaran", "Keith A. Joiner", "Pierre-Thomas Léger"), au_orcid = c(NA, NA, NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("Centre for Economic Policy Research London EC1V 0DK, United Kingdom;; Columbia University, New York 10027;; National Bureau of Economic Research, Cambridge, Massachusetts 02138;", "University of Arizona College of Medicine", 
-"University of Illinois Chicago, Chicago, Illinois 60607"), institution_id = c("https://openalex.org/I78577930", "https://openalex.org/I138006243", "https://openalex.org/I39422238"), institution_display_name = c("Columbia University", "University of Arizona", "University of Illinois at Chicago"), institution_ror = c("https://ror.org/00hj8s172", "https://ror.org/03m2x1q45", "https://ror.org/02mpq6x41"), institution_country_code = c("US", "US", "US"), institution_type = c("education", "education", 
-"education"), institution_lineage = c("https://openalex.org/I78577930", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I2801919071, https://openalex.org/I39422238"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>We study healthcare operations of emergency departments (EDs) by examining the practice styles and skills of ED physicians. Our data include all residents of Montreal, Canada, with an initial ED visit in Montreal during a nine-month period. For each visit, our data record the initial treating hospital, ED physician, ED billed expenditures, and all interactions with the health system within the subsequent 90 days. Physicians in Montreal rotate across shifts between simple and difficult cases, implying a quasi-random assignment of patients to physicians within an ED. We consider three medical conditions that present frequently in the ED and for which mistreatment may have dramatic consequences—angina, appendicitis, and transient ischemic attacks—jointly examining diagnostic and disposition skills. To control for variation in diagnosis, our sample for each condition consists of patients with a broader set of symptoms and signs potentially indicative of the condition. Separately by condition, we regress healthcare usage and cost measures on indicators for physicians to estimate the skill and practice style of each physician. We then evaluate the variation across physicians in their practice style and skills and the correlations between different measures of skill and practice style. We find significant variation across physicians in their practice styles and skills. We also find that physicians with costly practice styles often have worse outcomes in terms of more ED revisits and more hospitalizations. Finally, the practice styles and skills of physicians correlate positively across the three conditions that we consider. This paper was accepted by Jayashankar Swaminathan, operations management. Funding: Gowrisankaran acknowledges funding from the Center for Management Innovations in Healthcare at the University of Arizona. Supplemental Material: The online appendix and data are available at https://doi.org/10.1287/mnsc.2022.4544 .</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Management Science</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Management Science</t>
+          <t>Institute for Operations Research and the Management Sciences</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S33323087</t>
+          <t>https://doi.org/10.1287/mnsc.2022.4544</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Institute for Operations Research and the Management Sciences</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0025-1909</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1287/mnsc.2022.4544</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>3202</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3219</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W3122448629</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W3122448629", doi = "https://doi.org/10.1287/mnsc.2022.4544", mag = "3122448629")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1287/mnsc.2022.4544</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1600715105", "https://openalex.org/W1958664838", "https://openalex.org/W1978709615", "https://openalex.org/W1983607152", "https://openalex.org/W1989150739", "https://openalex.org/W2016043133", "https://openalex.org/W2027193605", "https://openalex.org/W2089762549", "https://openalex.org/W2091657371", "https://openalex.org/W2091716443", "https://openalex.org/W2098176817", "https://openalex.org/W2100673825", "https://openalex.org/W2114511005", "https://openalex.org/W2117413284", 
-"https://openalex.org/W2119730268", "https://openalex.org/W2127366732", "https://openalex.org/W2129726455", "https://openalex.org/W2130234815", "https://openalex.org/W2131479311", "https://openalex.org/W2161070118", "https://openalex.org/W2165386561", "https://openalex.org/W2190067552", "https://openalex.org/W2335377152", "https://openalex.org/W2345455190", "https://openalex.org/W2510197353", "https://openalex.org/W2515993241", "https://openalex.org/W2558876473", "https://openalex.org/W2580901941", 
-"https://openalex.org/W2595438848", "https://openalex.org/W2888104100", "https://openalex.org/W2965703708", "https://openalex.org/W3001069574", "https://openalex.org/W3022788387", "https://openalex.org/W3121432686", "https://openalex.org/W3124083483", "https://openalex.org/W3124248000", "https://openalex.org/W4205317485", "https://openalex.org/W4206216660")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1989198041", "https://openalex.org/W4384345078", "https://openalex.org/W2050305294", "https://openalex.org/W2625702017", "https://openalex.org/W322167246", "https://openalex.org/W4226090801", "https://openalex.org/W2386430105", "https://openalex.org/W2356521405", "https://openalex.org/W2244194037", "https://openalex.org/W2038534795")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept0701/Keith A Joiner_2023.xlsx
+++ b/DOM_Banner/output/dept0701/Keith A Joiner_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Centre for Economic Policy Research London EC1V 0DK, United Kingdom;; Columbia University, New York 10027;; National Bureau of Economic Research, Cambridge, Massachusetts 02138;; University of Arizona College of Medicine; University of Illinois Chicago, Chicago, Illinois 60607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3122448629</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Physician Practice Style and Healthcare Costs: Evidence from Emergency Departments</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Management Science</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Institute for Operations Research and the Management Sciences</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1287/mnsc.2022.4544</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1287/mnsc.2022.4544</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
